--- a/外部設計/資料/マクロ詳細.xlsx
+++ b/外部設計/資料/マクロ詳細.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\外部設計\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A19DC121-0D6C-4621-B5FC-776786F47FE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE431DD7-0E84-4349-9796-433F56D2412E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="11325" xr2:uid="{7153F7C0-5CFB-47D2-A9D7-D9BAA440110E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="242">
   <si>
     <t>マクロ</t>
     <phoneticPr fontId="2"/>
@@ -935,10 +935,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>原始文字枠要素あり</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>B_ACT/ALL B_ALL B_MCLS 62 B_MCMP &lt;CE&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1040,6 +1036,276 @@
     </rPh>
     <rPh sb="59" eb="61">
       <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_ACT/REL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>//</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>//原始文字枠要素あり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ERROR/OFF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊原始文字特性データのコピー   エラー時にブザーを鳴らさない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_UNBLANK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非表示のアイテムを表示に戻す 画面は非表示のアイテムだけを表示する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピクチャ上のすべてのアイテムでアクティブリストを作る　点 クラス55  レビジョン11　線幅1　線種1</t>
+    <rPh sb="27" eb="28">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>センハバ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[actlst(1)] &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>if ( #CURACTCNT != 0 ) {</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_ACT/ALL B_ALL B_MPNT B_MCLS 55 B_MREV 11 B_MLWT 1 B_MLFT 1 &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピクチャ上のすべてのアイテムでアクティブリストを作る　点 クラス55  レビジョン11　線幅1　線種1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>a_ptr = actlst(1);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_ACT/ALL B_ALL B_MCMP B_MCLS 55 B_MREV 1 B_MLWT 1 B_MLFT 1 &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピクチャ上のすべてのアイテムでアクティブリストを作る　複合アイテム クラス55  レビジョン1　線幅1　線種1</t>
+    <rPh sb="27" eb="29">
+      <t>フクゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>old_dlgmode = getprm( 4, 7 );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製図用定義などの現在値を得る関数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マクロで製図用定数などを一時的に変更し、あとで変更前の値に戻すときなどに使用する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_RVP/MODEL DLGMODE 0 B_RVP/END</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデル定数を変更する DLGMODE:ダイアログボックスを使用する (1=Yes,0=No)  0:No</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SPEC_FLN:特性ファイルを指定する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SPEC_COPY [a_ptr] [actlst(1)] &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SPEC_FLN 1001 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;CE&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特性データをコピーする [a_ptr] → [actlst(1)]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SPEC_FLN 1001 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;CE&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_RVP/MODEL DLGMODE [old_dlgmode] B_RVP/END</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_DEL [a_ptr] &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイテムを削除する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ERROR/ONN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー時にブザーを鳴らす</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>menu(3);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保存されたメニュー状態を復元する。保存されていなければ何もしない。復元後はメニュー状態が「保存されていない」になる。返り値は 0。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_MANY B_LWT [kplwt] B_LFT [kplft] B_CLS [kpcls] B_REV [kprev]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊旧レジスタデータ設定</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UBR_GM &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複合アイテム作成</t>
+    <rPh sb="0" eb="2">
+      <t>フクゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成した複合アイテムに</t>
+    <rPh sb="4" eb="6">
+      <t>フクゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特性データをコピー</t>
+    <rPh sb="0" eb="2">
+      <t>トクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1177,24 +1443,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1204,9 +1464,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1232,19 +1489,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1346,6 +1615,50 @@
         <a:xfrm>
           <a:off x="8686800" y="33147000"/>
           <a:ext cx="6354062" cy="2553056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4563108</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>114682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2F9350E-E855-4F44-BAA0-53FDCB0A4E45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8677275" y="44557950"/>
+          <a:ext cx="4534533" cy="2734057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1654,17 +1967,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D84FA84-6BE7-43D2-922C-DAEA77D0B68E}">
-  <dimension ref="B2:E168"/>
+  <dimension ref="B2:E203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="29.25" customWidth="1"/>
     <col min="3" max="3" width="75.25" customWidth="1"/>
-    <col min="4" max="4" width="112.5" customWidth="1"/>
+    <col min="4" max="4" width="119.875" customWidth="1"/>
     <col min="5" max="5" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1679,1287 +1992,1635 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
+    <row r="15" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12" t="s">
+    <row r="16" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12" t="s">
+    <row r="17" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
+    <row r="18" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12" t="s">
+    <row r="19" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="s">
+    <row r="20" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12" t="s">
+    <row r="21" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12" t="s">
+    <row r="22" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="12" t="s">
+    <row r="23" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="12" t="s">
+    <row r="25" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:4" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B26" s="14" t="s">
+    <row r="26" spans="2:4" s="10" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B26" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12" t="s">
+    <row r="27" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12" t="s">
+    <row r="28" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12" t="s">
+    <row r="29" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12" t="s">
+    <row r="30" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12" t="s">
+    <row r="31" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12" t="s">
+    <row r="32" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12" t="s">
+    <row r="33" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12" t="s">
+    <row r="34" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12" t="s">
+    <row r="35" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12" t="s">
+    <row r="36" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12" t="s">
+    <row r="37" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12" t="s">
+    <row r="38" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12" t="s">
+    <row r="39" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12" t="s">
+    <row r="40" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="12"/>
-    </row>
-    <row r="41" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12" t="s">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12" t="s">
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="12"/>
-      <c r="C43" s="12" t="s">
+    <row r="43" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-    </row>
-    <row r="47" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-    </row>
-    <row r="48" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-    </row>
-    <row r="49" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-    </row>
-    <row r="50" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-    </row>
-    <row r="51" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="12" t="s">
+    <row r="44" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="12" t="s">
+    <row r="53" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="2:4" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B54" s="14" t="s">
+    <row r="54" spans="2:4" s="10" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B54" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="14"/>
-      <c r="C55" s="12" t="s">
+    <row r="55" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="11"/>
+      <c r="C55" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="12"/>
-      <c r="C56" s="12" t="s">
+    <row r="56" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="12"/>
-      <c r="C57" s="12" t="s">
+    <row r="57" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="12"/>
-      <c r="C58" s="12" t="s">
+    <row r="58" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="12"/>
-      <c r="C59" s="12" t="s">
+    <row r="59" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="12"/>
-      <c r="C60" s="12" t="s">
+    <row r="60" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="12"/>
-      <c r="C61" s="12" t="s">
+    <row r="61" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="12"/>
-      <c r="C62" s="12" t="s">
+    <row r="62" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="12"/>
-      <c r="C63" s="12" t="s">
+    <row r="63" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="12"/>
-      <c r="C64" s="12" t="s">
+    <row r="64" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="12"/>
-    </row>
-    <row r="65" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="12"/>
-      <c r="C65" s="12" t="s">
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="9"/>
+      <c r="C65" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="12"/>
-    </row>
-    <row r="66" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="12"/>
-      <c r="C66" s="12" t="s">
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="12"/>
-      <c r="C67" s="12" t="s">
+    <row r="67" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="12"/>
-      <c r="C68" s="12" t="s">
+    <row r="68" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="9"/>
+      <c r="C68" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="12"/>
-      <c r="C69" s="12" t="s">
+    <row r="69" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="12"/>
-    </row>
-    <row r="70" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="12"/>
-      <c r="C70" s="12" t="s">
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="9"/>
+      <c r="C70" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D70" s="12"/>
-    </row>
-    <row r="71" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="12"/>
-      <c r="C71" s="12" t="s">
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="9"/>
+      <c r="C71" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-    </row>
-    <row r="73" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="12" t="s">
+    <row r="72" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="12" t="s">
+    <row r="74" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="2:4" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B75" s="14" t="s">
+    <row r="75" spans="2:4" s="10" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B75" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="12"/>
-      <c r="C76" s="12" t="s">
+    <row r="76" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="9"/>
+      <c r="C76" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="12"/>
-      <c r="C77" s="12" t="s">
+    <row r="77" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="9"/>
+      <c r="C77" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="12"/>
-      <c r="C78" s="12" t="s">
+    <row r="78" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="9"/>
+      <c r="C78" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="12"/>
-      <c r="C79" s="12" t="s">
+    <row r="79" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="9"/>
+      <c r="C79" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="12"/>
-      <c r="C80" s="12" t="s">
+    <row r="80" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="9"/>
+      <c r="C80" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="12"/>
-      <c r="C81" s="12" t="s">
+    <row r="81" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="9"/>
+      <c r="C81" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="12"/>
-      <c r="C82" s="12" t="s">
+    <row r="82" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="9"/>
+      <c r="C82" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="12"/>
-      <c r="C83" s="12" t="s">
+    <row r="83" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="9"/>
+      <c r="C83" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="12"/>
-    </row>
-    <row r="84" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="12"/>
-      <c r="C84" s="12" t="s">
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="12"/>
-      <c r="C85" s="12" t="s">
+    <row r="85" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="9"/>
+      <c r="C85" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="12"/>
-      <c r="C86" s="12" t="s">
+    <row r="86" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B86" s="9"/>
+      <c r="C86" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D86" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="12"/>
-      <c r="C87" s="16" t="s">
+    <row r="87" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="9"/>
+      <c r="C87" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D87" s="12"/>
-    </row>
-    <row r="88" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="12"/>
-      <c r="C88" s="17" t="s">
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="9"/>
+      <c r="C88" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="12"/>
-      <c r="C89" s="17" t="s">
+    <row r="89" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="9"/>
+      <c r="C89" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="12"/>
-    </row>
-    <row r="90" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="12"/>
-      <c r="C90" s="17" t="s">
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B90" s="9"/>
+      <c r="C90" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="12"/>
-    </row>
-    <row r="91" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B91" s="12"/>
-      <c r="C91" s="17" t="s">
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B91" s="9"/>
+      <c r="C91" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="12"/>
-    </row>
-    <row r="92" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="12"/>
-      <c r="C92" s="17" t="s">
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B92" s="9"/>
+      <c r="C92" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="12"/>
-    </row>
-    <row r="93" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B93" s="12"/>
-      <c r="C93" s="12" t="s">
+      <c r="D92" s="9"/>
+    </row>
+    <row r="93" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B93" s="9"/>
+      <c r="C93" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D93" s="12"/>
-    </row>
-    <row r="94" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B94" s="12"/>
-      <c r="C94" s="18" t="s">
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B94" s="9"/>
+      <c r="C94" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D94" s="12" t="s">
+      <c r="D94" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="12"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="12" t="s">
+    <row r="95" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B95" s="9"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="12"/>
-      <c r="C96" s="12" t="s">
+    <row r="96" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B96" s="9"/>
+      <c r="C96" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D96" s="12" t="s">
+      <c r="D96" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B97" s="12"/>
-      <c r="C97" s="12" t="s">
+    <row r="97" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B97" s="9"/>
+      <c r="C97" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D97" s="12" t="s">
+      <c r="D97" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="12"/>
-      <c r="C98" s="12" t="s">
+    <row r="98" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="9"/>
+      <c r="C98" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D98" s="12"/>
-    </row>
-    <row r="99" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B99" s="12"/>
-      <c r="C99" s="12" t="s">
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B99" s="9"/>
+      <c r="C99" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="2:4" s="13" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B100" s="12"/>
-      <c r="C100" s="12" t="s">
+    <row r="100" spans="2:4" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B100" s="9"/>
+      <c r="C100" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="12"/>
-      <c r="C101" s="12" t="s">
+    <row r="101" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B101" s="9"/>
+      <c r="C101" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D101" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B102" s="12"/>
-      <c r="C102" s="12" t="s">
+    <row r="102" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B102" s="9"/>
+      <c r="C102" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D102" s="12"/>
-    </row>
-    <row r="103" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="12"/>
-      <c r="C103" s="12" t="s">
+      <c r="D102" s="9"/>
+    </row>
+    <row r="103" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B103" s="9"/>
+      <c r="C103" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D103" s="12" t="s">
+      <c r="D103" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="2:4" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B104" s="12"/>
-      <c r="C104" s="12" t="s">
+    <row r="104" spans="2:4" s="10" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B104" s="9"/>
+      <c r="C104" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21" t="s">
+      <c r="C107" s="16"/>
+      <c r="D107" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B110" s="4"/>
-      <c r="C110" s="4" t="s">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B111" s="4"/>
-      <c r="C111" s="4" t="s">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B112" s="4"/>
-      <c r="C112" s="4" t="s">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D112" s="4"/>
+      <c r="D112" s="3"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D114" s="4"/>
+      <c r="D114" s="3"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C115" s="12"/>
-      <c r="D115" s="4"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="3"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C116" s="12"/>
-      <c r="D116" s="4"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="3"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C117" s="12"/>
-      <c r="D117" s="4"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="3"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C118" s="12"/>
-      <c r="D118" s="4"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="3"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21" t="s">
+      <c r="C122" s="16"/>
+      <c r="D122" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B125" s="4"/>
-      <c r="C125" s="4" t="s">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D125" s="4"/>
+      <c r="D125" s="3"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21" t="s">
+      <c r="C128" s="16"/>
+      <c r="D128" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="3" t="s">
         <v>159</v>
       </c>
+      <c r="D130" s="3"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C131" t="s">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="132" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C132" t="s">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C133" t="s">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="D133" s="3"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C144" t="s">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C145" t="s">
+      <c r="B145" s="3"/>
+      <c r="C145" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C146" t="s">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C147" t="s">
+      <c r="B147" s="3"/>
+      <c r="C147" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C148" t="s">
+      <c r="B148" s="3"/>
+      <c r="C148" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C149" t="s">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B150" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B151" s="3"/>
+      <c r="C151" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B150" t="s">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B153" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B154" s="3"/>
+      <c r="C154" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B155" s="3"/>
+      <c r="C155" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B156" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B157" s="3"/>
+      <c r="C157" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B158" s="3"/>
+      <c r="C158" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D158" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B159" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B160" s="3"/>
+      <c r="C160" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C151" t="s">
+      <c r="D160" s="3"/>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B161" s="3"/>
+      <c r="C161" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B162" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D162" s="3"/>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B163" s="3"/>
+      <c r="C163" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B164" s="3"/>
+      <c r="C164" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B165" s="3"/>
+      <c r="C165" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D165" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B166" s="3"/>
+      <c r="C166" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C152" t="s">
-        <v>174</v>
-      </c>
-      <c r="D152" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B153" t="s">
-        <v>183</v>
-      </c>
-      <c r="C153" t="s">
-        <v>176</v>
-      </c>
-      <c r="D153" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C154" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C155" t="s">
-        <v>178</v>
-      </c>
-      <c r="D155" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B156" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C156" t="s">
-        <v>181</v>
-      </c>
-      <c r="D156" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C157" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C158" t="s">
-        <v>185</v>
-      </c>
-      <c r="D158" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B159" t="s">
-        <v>189</v>
-      </c>
-      <c r="C159" t="s">
-        <v>187</v>
-      </c>
-      <c r="D159" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C160" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C161" t="s">
-        <v>190</v>
-      </c>
-      <c r="D161" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B162" t="s">
-        <v>191</v>
-      </c>
-      <c r="C162" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C163" t="s">
-        <v>192</v>
-      </c>
-      <c r="D163" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C164" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C165" t="s">
-        <v>173</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="D166" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C166" t="s">
-        <v>196</v>
-      </c>
-      <c r="D166" t="s">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B167" s="3"/>
+      <c r="C167" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C167" t="s">
+      <c r="D167" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D167" t="s">
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B168" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C168" t="s">
+      <c r="D168" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D168" t="s">
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B169" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>202</v>
       </c>
+      <c r="D169" s="3"/>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B170" s="3"/>
+      <c r="C170" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B171" s="3"/>
+      <c r="C171" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B172" s="3"/>
+      <c r="C172" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B173" s="3"/>
+      <c r="C173" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B174" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B175" s="3"/>
+      <c r="C175" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B176" s="3"/>
+      <c r="C176" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B177" s="3"/>
+      <c r="C177" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B178" s="3"/>
+      <c r="C178" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B179" s="3"/>
+      <c r="C179" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B193" s="3"/>
+      <c r="C193" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B194" s="3"/>
+      <c r="C194" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B195" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B196" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C196" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B197" s="3"/>
+      <c r="C197" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B198" s="3"/>
+      <c r="C198" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B199" s="3"/>
+      <c r="C199" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B200" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B201" s="3"/>
+      <c r="C201" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B202" s="3"/>
+      <c r="C202" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B203" s="3"/>
+      <c r="C203" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D203" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2971,6 +3632,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/外部設計/資料/マクロ詳細.xlsx
+++ b/外部設計/資料/マクロ詳細.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\外部設計\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE431DD7-0E84-4349-9796-433F56D2412E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9BF02D-B641-45DA-A4E4-0DA563348AB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="11325" xr2:uid="{7153F7C0-5CFB-47D2-A9D7-D9BAA440110E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="11325" activeTab="1" xr2:uid="{7153F7C0-5CFB-47D2-A9D7-D9BAA440110E}"/>
   </bookViews>
   <sheets>
     <sheet name="(円弧配列)ATB図面" sheetId="1" r:id="rId1"/>
+    <sheet name="C表作成" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="330">
   <si>
     <t>マクロ</t>
     <phoneticPr fontId="2"/>
@@ -992,19 +993,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>＊原始文字枠要素検索　ピクチャ上のすべてのアイテムでアクティブリストを作る クラス60 ストリング　</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>＊ストリング(文字要素)検索　ピクチャ上のすべてのアイテムでアクティブリストを作る クラス100 ストリング　</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>B_ACT/ALL ADD B_ALL B_MCLS 55  B_MCMP &lt;CE&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>＊複合アイテム化　ピクチャ上のすべてのアイテムでアクティブリストを作る クラス100 ストリング</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1053,10 +1042,6 @@
   </si>
   <si>
     <t>ERROR/OFF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>＊原始文字特性データのコピー   エラー時にブザーを鳴らさない</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1278,10 +1263,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>＊旧レジスタデータ設定</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>UBR_GM &lt;CE&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1309,12 +1290,414 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>BR_GM_DEFPNT.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原始文字原点作成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>extern tp_dat1,tp_dat2,tp_dat3,tp_dat4,pt_hor,pt_vrt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MACRO "BR_GM_DTWK" &lt;CE&gt;	</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原始文字枠データ取得</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MACRO "DSP$GMCPT"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>echo "Do you appoint the primitive letter origin?(Y=&lt;CE&gt;orY,N=&lt;BS&gt;orN)";</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kplwt = #CURLWT;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kplft = #CURLFT;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kpcls = #CURCLS;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kprev = #CURREV;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spx = tp_dat4[0];</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spy = tp_dat4[1];</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hig = tp_dat1;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ang = 90 - tp_dat3;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wid = tp_dat2;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>epx = spx+(wid/2);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* 水平線分 */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sx = (spx+(wid/2)) - (cos(ang)*lin);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sy = spy - (sin(ang)*lin);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cntl = hig/sin(ang) + lin;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ex = (spx+(wid/2)) + (cos(ang)*cntl);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ey = spy + (sin(ang)*cntl);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_LBP B_LWT 1 B_LFT 3 B_CLS 63 B_REV 1 [pce(sx,sy)] [pce(ex,ey)] &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">２点を結ぶ線を作る 線幅1 線種3 クラス63 レビジョン1  </t>
+    <rPh sb="10" eb="12">
+      <t>センハバ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>epy = spy;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* 垂直線分 */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sx = spx-lin;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sy = spy;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ex = spx + wid + lin;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ey = spy;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_LBP B_LWT 1 B_LFT 3 B_CLS 63 B_REV 4 [pce(sx,sy)] [pce(ex,ey)] &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２点を結ぶ線を作る 線幅1 線種3 クラス63 レビジョン4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* 旧レジスタデータ設定 */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_LWT [kplwt] B_LFT [kplft] B_CLS [kpcls] B_REV [kprev] &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_MANY B_MCLS &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MAIN &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊原始文字枠要素検索</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピクチャ上のすべてのアイテムでアクティブリストを作る クラス60 ストリング　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊ストリング(文字要素)検索</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピクチャ上のすべてのアイテムでアクティブリストを作る クラス100 ストリング　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊複合アイテム化</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピクチャ上のすべてのアイテムでアクティブリストを作る クラス100 ストリング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">＊原始文字特性データのコピー   </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊旧レジスタデータ設定</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C_BZREAD.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブランド図面 読込</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C_CZREAD.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ｃ表整理番号図面 読込</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C_ZWMAKE_ENG.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ｃ表図面枠 読込</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C_TWIMAKE_ENG.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＴＷＩ（作成）ENG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C_TWIDEL.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＴＷＩ（削除）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C_TWIMAKE.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＴＷＩ（作成）JPN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C_PLATFORMMAKE_ENG.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ｃ表 プラットフォーム注釈 読込</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C_PLATFORMMAKE_IO_ENG.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IO Ｃ表 プラットフォーム注釈 読込</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C_ANZENMAKE.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ｃ表 安全表示 作成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C_ANZENDEL.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ｃ表 安全表示 削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C_CZPLOT.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>図面配置</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C_UC_CZSAVE.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>図面保存前にDOT表示を（強制的に）自動削除されるようにする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C_BZREAD.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブランド図面 読込</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>menu(1);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ilist  = array(2);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マクロ実行後、メニューをマクロ実行直前の状態に戻す。 現在のメニューの状態を保存させる。返り値は 1。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">olist  = array(2); </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一次元配列</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cmd1 = 6;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cmd2 = 7;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p = pos( 0, 0, 6 );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カーソル位置型 p = pos(ix,iy,iw) iw はウインドウの番号 33= テンポラリウインドウ 6 = メッセージウインドウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>merase(p);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウインドウをイレーズする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p = pos( 1, 1, 6 );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mecho( p, "Brand Drawing Read" );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p = pos( 1, 2, 6 );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mecho( p, "File Name：" );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* ディレクトリ取得 */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">olist = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dbaccs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( cmd1, ilist);</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>echo "Input Brand Drawing Name. &lt;ＣＥ&gt;";</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bz_no = gettxt(1);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mdlname = olist[0] + "\\" + bz_no;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最大n個の文字列を入力する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1360,6 +1743,22 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1443,7 +1842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1495,6 +1894,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1507,14 +1915,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1659,6 +2073,99 @@
         <a:xfrm>
           <a:off x="8677275" y="44557950"/>
           <a:ext cx="4534533" cy="2734057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2819791</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57B1118-CC02-45F0-9FEC-917E5EA84CE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8782050" y="5695950"/>
+          <a:ext cx="2800741" cy="962159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4305900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>209710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE2FCBF-8A6A-443F-BB42-3771B2F28CB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8772525" y="7162800"/>
+          <a:ext cx="4296375" cy="1143160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1967,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D84FA84-6BE7-43D2-922C-DAEA77D0B68E}">
-  <dimension ref="B2:E203"/>
+  <dimension ref="B2:E235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView topLeftCell="D46" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1992,10 +2499,10 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2006,8 +2513,8 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2042,16 +2549,16 @@
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2060,9 +2567,9 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="3"/>
@@ -2774,7 +3281,7 @@
     </row>
     <row r="94" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B94" s="9"/>
-      <c r="C94" s="19" t="s">
+      <c r="C94" s="22" t="s">
         <v>120</v>
       </c>
       <c r="D94" s="9" t="s">
@@ -2783,7 +3290,7 @@
     </row>
     <row r="95" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B95" s="9"/>
-      <c r="C95" s="20"/>
+      <c r="C95" s="23"/>
       <c r="D95" s="9" t="s">
         <v>121</v>
       </c>
@@ -2822,7 +3329,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="2:4" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:4" s="10" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B100" s="9"/>
       <c r="C100" s="9" t="s">
         <v>128</v>
@@ -3178,17 +3685,19 @@
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B149" s="3"/>
+      <c r="B149" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="C149" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>193</v>
+        <v>275</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B150" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>96</v>
@@ -3196,12 +3705,14 @@
       <c r="D150" s="3"/>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B151" s="3"/>
+      <c r="B151" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="C151" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.4">
@@ -3241,7 +3752,7 @@
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B156" s="21" t="s">
+      <c r="B156" s="17" t="s">
         <v>187</v>
       </c>
       <c r="C156" s="3" t="s">
@@ -3320,136 +3831,140 @@
       <c r="D164" s="3"/>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B165" s="3"/>
+      <c r="B165" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="C165" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B166" s="3"/>
       <c r="C166" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B167" s="3"/>
       <c r="C167" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B168" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B169" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C169" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D169" s="3"/>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B170" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D169" s="3"/>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B170" s="3"/>
-      <c r="C170" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="D170" s="3" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B171" s="3"/>
       <c r="C171" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B172" s="3"/>
       <c r="C172" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B173" s="3"/>
-      <c r="C173" s="22" t="s">
-        <v>210</v>
+      <c r="C173" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B174" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D174" s="3"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B175" s="3"/>
       <c r="C175" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B176" s="3"/>
       <c r="C176" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D176" s="3"/>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B177" s="3"/>
       <c r="C177" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D177" s="3"/>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
       <c r="C178" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B179" s="3"/>
       <c r="C179" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.4">
@@ -3516,111 +4031,352 @@
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B193" s="3"/>
       <c r="C193" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B194" s="3"/>
-      <c r="C194" s="23" t="s">
-        <v>225</v>
+      <c r="C194" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B195" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B196" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C196" s="23" t="s">
-        <v>227</v>
+        <v>236</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B197" s="3"/>
-      <c r="C197" s="23" t="s">
-        <v>224</v>
+      <c r="C197" s="19" t="s">
+        <v>220</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B198" s="3"/>
-      <c r="C198" s="23" t="s">
-        <v>228</v>
+      <c r="C198" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B199" s="3"/>
-      <c r="C199" s="23" t="s">
-        <v>229</v>
+      <c r="C199" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B200" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C200" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
+      </c>
+      <c r="C200" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B201" s="3"/>
-      <c r="C201" s="23" t="s">
-        <v>234</v>
+      <c r="C201" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B202" s="3"/>
-      <c r="C202" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="B202" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D202" s="3"/>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B203" s="3"/>
-      <c r="C203" s="23" t="s">
+      <c r="C203" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D203" s="3"/>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B205" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B206" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" s="16"/>
+      <c r="D206" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B207" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D207" s="3"/>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B208" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D203" s="3"/>
+      <c r="C208" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B209" s="3"/>
+      <c r="C209" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D209" s="3"/>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B210" s="3"/>
+      <c r="C210" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D210" s="3"/>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B211" s="3"/>
+      <c r="C211" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B212" s="3"/>
+      <c r="C212" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B213" s="3"/>
+      <c r="C213" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B214" s="3"/>
+      <c r="C214" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B215" s="3"/>
+      <c r="C215" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D215" s="3"/>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B216" s="3"/>
+      <c r="C216" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D216" s="3"/>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B217" s="3"/>
+      <c r="C217" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D217" s="3"/>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B218" s="3"/>
+      <c r="C218" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D218" s="3"/>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B219" s="3"/>
+      <c r="C219" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D219" s="3"/>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B220" s="3"/>
+      <c r="C220" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D220" s="3"/>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B221" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D221" s="3"/>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B222" s="3"/>
+      <c r="C222" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D222" s="3"/>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B223" s="3"/>
+      <c r="C223" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D223" s="3"/>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B224" s="3"/>
+      <c r="C224" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D224" s="3"/>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B225" s="3"/>
+      <c r="C225" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D225" s="3"/>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B226" s="3"/>
+      <c r="C226" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B227" s="3"/>
+      <c r="C227" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D227" s="3"/>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B228" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D228" s="3"/>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B229" s="3"/>
+      <c r="C229" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D229" s="3"/>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B230" s="3"/>
+      <c r="C230" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D230" s="3"/>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B231" s="3"/>
+      <c r="C231" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D231" s="3"/>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B232" s="3"/>
+      <c r="C232" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B233" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D233" s="3"/>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B234" s="3"/>
+      <c r="C234" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D234" s="3"/>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B235" s="3"/>
+      <c r="C235" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D235" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3635,4 +4391,273 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B425E8F-CA70-4475-BD69-71A5F2820DDE}">
+  <dimension ref="B2:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="72.625" customWidth="1"/>
+    <col min="4" max="4" width="95.625" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>315</v>
+      </c>
+      <c r="D23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D24" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>324</v>
+      </c>
+      <c r="C38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
+        <v>327</v>
+      </c>
+      <c r="D40" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/外部設計/資料/マクロ詳細.xlsx
+++ b/外部設計/資料/マクロ詳細.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\外部設計\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9BF02D-B641-45DA-A4E4-0DA563348AB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265967E4-B1AF-4927-A60D-5B1DA5C48A05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="11325" activeTab="1" xr2:uid="{7153F7C0-5CFB-47D2-A9D7-D9BAA440110E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="363">
   <si>
     <t>マクロ</t>
     <phoneticPr fontId="2"/>
@@ -1690,6 +1690,138 @@
   </si>
   <si>
     <t>最大n個の文字列を入力する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p = pos( 0, 0, 6 );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>merase(p);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウインドウをイレーズする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p = pos( 1, 1, 6 );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mecho( p, "Brand Drawing Read" );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p = pos( 1, 2, 6 );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mecho( p, "File Name：", bz_no );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/*実行の確認*/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>echo "Continue？(Ｙ＝&lt;ＣＥ&gt;／Ｎ＝&lt;ＢＳ&gt;)";</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>t = getany(1);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数値、文字列、モデル座標点、スクリーン座標、カーソル位置、コマンドエンド、スペースキー、バックスペースキーのいずれかを得るのに使う。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* モデル存在確認 */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>if ( fstat( mdlname + ".MDL", "exist" ) == 1 ) {</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルが存在するとき 1、ないとき 0 を返す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* モデル使用中チェック */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>check_mdl = mdlname + ".MDL_LCK";</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fn = fopen( check_mdl, "r" );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルをオープンする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>if ( fn &gt; 0 ) {</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_data = fgets( 250, fn );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル記述子番号 fn のファイルから最高 n 文字読み込む。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>err = fclose( fn );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル記述子番号 fn のファイルをクローズする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>echo "ERROR：This Drawing is useing ・・・ "user_data;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>exit;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* ブランド図面読込 */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s = error();</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Advance CAD のコマンドのエラーを調べる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>old_dlgmode = getprm( 4, 7 );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_RVP/MODEL DLGMODE 0 B_RVP/END</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製図用定義などの現在値を得る関数              (4,7)DLGMODE(Windows NT 版のみ )</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1842,7 +1974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1903,18 +2035,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1928,6 +2048,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2166,6 +2301,181 @@
         <a:xfrm>
           <a:off x="8772525" y="7162800"/>
           <a:ext cx="4296375" cy="1143160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3896265</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F9A0B4B-8841-4584-9DA0-AF5F0C395E47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect t="6666"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8791575" y="12392025"/>
+          <a:ext cx="3867690" cy="400110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4467842</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D1CD43-9D0E-456A-AAF9-5B97EBFB931B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8810625" y="12763500"/>
+          <a:ext cx="4420217" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2971800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4048275</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>219107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51ECE13-BED1-4CB0-B5A7-9D6C20647098}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11734800" y="14277975"/>
+          <a:ext cx="1076475" cy="228632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4772688</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38504</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2519630F-7999-4A7B-AE19-EF8D2AEF8C14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8782050" y="14763750"/>
+          <a:ext cx="4753638" cy="2896004"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2499,10 +2809,10 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2513,8 +2823,8 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2555,10 +2865,10 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2567,8 +2877,8 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="18" t="s">
         <v>18</v>
       </c>
@@ -3281,7 +3591,7 @@
     </row>
     <row r="94" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B94" s="9"/>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="27" t="s">
         <v>120</v>
       </c>
       <c r="D94" s="9" t="s">
@@ -3290,7 +3600,7 @@
     </row>
     <row r="95" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B95" s="9"/>
-      <c r="C95" s="23"/>
+      <c r="C95" s="28"/>
       <c r="D95" s="9" t="s">
         <v>121</v>
       </c>
@@ -4395,17 +4705,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B425E8F-CA70-4475-BD69-71A5F2820DDE}">
-  <dimension ref="B2:E41"/>
+  <dimension ref="B2:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="33.375" customWidth="1"/>
     <col min="3" max="3" width="72.625" customWidth="1"/>
-    <col min="4" max="4" width="95.625" customWidth="1"/>
+    <col min="4" max="4" width="125.125" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4420,124 +4730,124 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="26"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="26"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="7" t="s">
@@ -4655,9 +4965,148 @@
         <v>328</v>
       </c>
     </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
+        <v>331</v>
+      </c>
+      <c r="D43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C44" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
+        <v>334</v>
+      </c>
+      <c r="D45" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C47" t="s">
+        <v>337</v>
+      </c>
+      <c r="D47" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>338</v>
+      </c>
+      <c r="C48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C49" t="s">
+        <v>340</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>342</v>
+      </c>
+      <c r="C50" t="s">
+        <v>343</v>
+      </c>
+      <c r="D50" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>345</v>
+      </c>
+      <c r="C51" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C52" t="s">
+        <v>347</v>
+      </c>
+      <c r="D52" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
+        <v>349</v>
+      </c>
+      <c r="C57" t="s">
+        <v>350</v>
+      </c>
+      <c r="D57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C58" t="s">
+        <v>352</v>
+      </c>
+      <c r="D58" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C59" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>356</v>
+      </c>
+      <c r="C60" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>357</v>
+      </c>
+      <c r="C61" t="s">
+        <v>358</v>
+      </c>
+      <c r="D61" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C62" t="s">
+        <v>360</v>
+      </c>
+      <c r="D62" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C76" t="s">
+        <v>361</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/外部設計/資料/マクロ詳細.xlsx
+++ b/外部設計/資料/マクロ詳細.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\外部設計\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265967E4-B1AF-4927-A60D-5B1DA5C48A05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FF2F91-8275-45AA-99F6-B9706663EAC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="11325" activeTab="1" xr2:uid="{7153F7C0-5CFB-47D2-A9D7-D9BAA440110E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="476">
   <si>
     <t>マクロ</t>
     <phoneticPr fontId="2"/>
@@ -1589,10 +1589,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>マクロ実行後、メニューをマクロ実行直前の状態に戻す。 現在のメニューの状態を保存させる。返り値は 1。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">olist  = array(2); </t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1610,10 +1606,6 @@
   </si>
   <si>
     <t>p = pos( 0, 0, 6 );</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カーソル位置型 p = pos(ix,iy,iw) iw はウインドウの番号 33= テンポラリウインドウ 6 = メッセージウインドウ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1741,11 +1733,159 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>if ( fstat( mdlname + ".MDL", "exist" ) == 1 ) {</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルが存在するとき 1、ないとき 0 を返す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* モデル使用中チェック */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>check_mdl = mdlname + ".MDL_LCK";</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fn = fopen( check_mdl, "r" );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルをオープンする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>if ( fn &gt; 0 ) {</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_data = fgets( 250, fn );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル記述子番号 fn のファイルから最高 n 文字読み込む。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>err = fclose( fn );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル記述子番号 fn のファイルをクローズする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>echo "ERROR：This Drawing is useing ・・・ "user_data;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>exit;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* ブランド図面読込 */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s = error();</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Advance CAD のコマンドのエラーを調べる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>old_dlgmode = getprm( 4, 7 );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製図用定義などの現在値を得る関数              (4,7)DLGMODE(Windows NT 版のみ )</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデル定数を変更する ダイアログボックスを使用する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>if ( dbchgd() == 0 ) {</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデルが変更されているときは 1、変更されていないときは 0 を返す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_MODEL/READ [mdlname] &lt;CE&gt; [yn = "Y"] &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>既存のモデルファイルをディスクから呼び出す</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_RVP/MODEL DLGMODE [old_dlgmode] B_RVP/END</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s = error();</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Advance CAD のコマンドのエラーを調べる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>if ( s != 100050 ) {</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>} else { B_MODEL/READ [mdlname] &lt;CE&gt; [yn = gettxt(1)] &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最大 ｎ 個の文字列を入力する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>if ( s != 0 &amp;&amp; s != -1622 &amp;&amp; s != 100057 ) {</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cmd = 8;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* ディレクトリ取得 */   else{</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* モデル存在確認 */   if{</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>olist = dbaccs( cmd, ilist);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mdlname = olist[0] + bz_no;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>if ( olist[0] == "error" ) {  …exit;}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>/* モデル存在確認 */</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>if ( fstat( mdlname + ".MDL", "exist" ) == 1 ) {</t>
+    <t>if ( fstat( mdlname + ".MDL", "exist" ) == 0 ) { …exit}</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1789,11 +1929,249 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>echo "ERROR：This Drawing is useing ・・・ "user_data;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>exit;</t>
+    <t>exit; }</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* モデル読込 */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>old_dlgmode = getprm( 4, 7 );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_RVP/MODEL DLGMODE 0 B_RVP/END</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデル定数を変更する サブウィンドウを使用する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>} else {　B_MODEL/READ [mdlname] &lt;CE&gt; [yn = gettxt(1)] &lt;CE&gt;　}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>if ( vtype(yn) == 5 ) { exit;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>} else if ( yn == "N" || yn == "NO" ) { exit; }</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>if ( s != 0 &amp;&amp; s != -1622 ) { exit; }</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p = pos( 1, 1, 6 );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カーソル位置型</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mecho( p, "処理中です．．．．．．．．．．" );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* テンプファイルに出力・ＰＩＣ削除・円弧ＰＩＣ修正 */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ilist[0] = mdlname;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>olist    = dbaccs( cmd2, ilist );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* 図面配置削除 */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DRAW/DEL ALL &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p = pos(0,0,6);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>merase(p);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウインドウをイレーズする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p = pos(0,2,7);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p = pos(0,3,7);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>図面配置した頁を削除する 　全頁</t>
+    <rPh sb="14" eb="16">
+      <t>ゼンページ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C_CZREAD.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ｃ表整理番号図面 読込</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>menu(1);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マクロ実行後、メニューをマクロ実行直前の状態に戻す。 現在のメニューの状態を保存させる。返り値は 1。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cmd = 5;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>echo "Input Number? &lt;ＣＥ&gt;";</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>c_no = gettxt(1);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>整理番号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Brand Drawing Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mdlname = olist[0] + "\\" + c_no;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記の塗りつぶし個所以外BZREADと同じ</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C_ZWMAKE_ENG.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ｃ表図面枠 読込</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* ---------- マクロカウント start ---------- */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>extern cur_macro_name;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外部変数　cur_macro_name</t>
+    <rPh sb="0" eb="4">
+      <t>ガイブヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cur_macro_name="C_ZWMAKE_ENG";</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MACRO "MACRO_COUNT";</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* ---------- マクロカウント end ---------- */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カーソル位置型 p = pos(ix,iy,iw) iw はウインドウの番号 33= テンポラリウインドウ 6 = メッセージウインドウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>submodel_name="P-SUB-C";</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mecho( p, "Read Drawing Frame" );</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/*実行の確認*/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>echo "Cuntinue？(Ｙ＝&lt;ＣＥ&gt;／Ｎ＝&lt;ＢＳ&gt;)";</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>while (1) {</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>t = getany(1);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数値、文字列、モデル座標点、スクリーン座標、カーソル位置、コマンドエンド、スペースキー、バックスペースキーのいずれかを得るのに使う。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>if ( vtype(t) == 5 || vtype(t) == 11 ) { break;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>} else if ( vtype(t) == 7 ) {...exit;}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>} else if ( vtype(t) == 4 ) {</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>if ( t == "Y" || t == "YES" ) { break;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>} else if ( t == "N" || t == "NO" ) { exit;}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>echo "Bad INput. Continue?(Ｙ＝&lt;ＣＥ&gt;／Ｎ＝&lt;ＢＳ&gt;)";</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1801,27 +2179,124 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/* ブランド図面読込 */</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>s = error();</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Advance CAD のコマンドのエラーを調べる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>old_dlgmode = getprm( 4, 7 );</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>B_RVP/MODEL DLGMODE 0 B_RVP/END</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>製図用定義などの現在値を得る関数              (4,7)DLGMODE(Windows NT 版のみ )</t>
+    <t>/* 図枠部品を日本語版→英語版に切り替え */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PIC [6]	</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">		/* 図枠左上部品 */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ACT/REL &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現在のアクティブリストを空にする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ACT/BOX IDT/INSIDE_F &lt;-1,-1&gt; &lt;1,1&gt; &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>矩形の内側／交差／外側のアイテムでアクティブリストを作る IDT/INSIDE_F アイテムの全体または一部が矩形に含まれるアイテムを追加／排除する。
+&lt;-1,-1&gt; &lt;1,1&gt;矩形の対角点を入力する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DEL USEACT &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクティブリスト内のアイテムを削除する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>submodel_pic=41;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SUB NME [submodel_name] ITMSUB RDPIC [submodel_pic] &lt;CE&gt; &lt;0,0&gt; &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サブモデルを配置する NME [submodel_name]:サブモデルの名前  ITMSUB:サブモデルアイテムとして配置する。
+RDPIC [submodel_pic]:サブモデルを読み込むピクチャを指示する。ピクチャ番号　&lt;0,0&gt;:配置点</t>
+    <rPh sb="111" eb="113">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* 図枠左下部品 */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PIC [7]	</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>submodel_pic=42;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* 図枠右下部品 */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PIC [8]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクティブピクチャを変更する   ピクチャ番号6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクティブピクチャを変更する   ピクチャ番号7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクティブピクチャを変更する   ピクチャ番号8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>submodel_pic=43;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/*図面枠を設定表示する*/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_DRAW 1 "P-C-3" &lt;CE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドローイングモードを開始する 表示する頁を指示ドローイングレイアウト番号1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* 頁タイトル一覧表示 */</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B_DRAW/TITLE WONN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>図面枠の標題欄に記入する項目を修正する   WONN:頁タイトルの一覧をサブウインドウまたはダイアログボックスに表示する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C_TWIMAKE_ENG.MAC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＴＷＩ（作成）ENG</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1893,7 +2368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1915,6 +2390,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2050,6 +2531,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2061,9 +2545,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2484,6 +2965,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2457790</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>181065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C1B10E-843C-4300-B7B2-9CC8A18AAA68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8782050" y="18107025"/>
+          <a:ext cx="2438740" cy="647790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2829316</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148A369C-7FC4-4B9C-A441-751072B00B6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10153650" y="27651075"/>
+          <a:ext cx="2800741" cy="914399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2819791</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB346965-E323-4928-80F0-5C5DF3190D41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10144125" y="32880300"/>
+          <a:ext cx="2800741" cy="914399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2809,10 +3422,10 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2823,8 +3436,8 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2865,10 +3478,10 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2877,8 +3490,8 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="18" t="s">
         <v>18</v>
       </c>
@@ -3591,7 +4204,7 @@
     </row>
     <row r="94" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B94" s="9"/>
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="28" t="s">
         <v>120</v>
       </c>
       <c r="D94" s="9" t="s">
@@ -3600,7 +4213,7 @@
     </row>
     <row r="95" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B95" s="9"/>
-      <c r="C95" s="28"/>
+      <c r="C95" s="29"/>
       <c r="D95" s="9" t="s">
         <v>121</v>
       </c>
@@ -4705,17 +5318,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B425E8F-CA70-4475-BD69-71A5F2820DDE}">
-  <dimension ref="B2:E76"/>
+  <dimension ref="B2:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="2" max="2" width="51.25" customWidth="1"/>
     <col min="3" max="3" width="72.625" customWidth="1"/>
-    <col min="4" max="4" width="125.125" customWidth="1"/>
+    <col min="4" max="4" width="130" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4864,243 +5477,1224 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>307</v>
-      </c>
-      <c r="C19" t="s">
-        <v>309</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
+      <c r="D23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C29" t="s">
+      <c r="D30" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C30" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C36" t="s">
+      <c r="D37" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38" s="25" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C37" t="s">
+      <c r="C38" s="25" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="C40" s="25" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C39" t="s">
+      <c r="D40" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C40" t="s">
-        <v>327</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C42" t="s">
+      <c r="D43" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C43" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C44" t="s">
+      <c r="D45" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C45" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C46" t="s">
+      <c r="D47" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B48" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C47" t="s">
+      <c r="C48" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D47" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B48" t="s">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D49" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C49" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B50" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D50" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B50" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B51" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B51" t="s">
+      <c r="D52" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B57" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C52" t="s">
+      <c r="C57" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D57" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B57" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D58" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D57" t="s">
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C58" t="s">
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B60" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D58" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C59" t="s">
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B61" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B60" t="s">
+      <c r="C61" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C60" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B61" t="s">
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D62" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D61" t="s">
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C62" t="s">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B85" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B86" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B87" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B91" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B92" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B99" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D101" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C76" t="s">
-        <v>361</v>
+      <c r="D102" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B109" s="25"/>
+      <c r="C109" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B110" s="25"/>
+      <c r="C110" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B111" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B112" s="25"/>
+      <c r="C112" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B113" s="25"/>
+      <c r="C113" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B114" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D119" s="3"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D120" s="3"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B122" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B123" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B124" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B125" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B127" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B128" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D128" s="3"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B130" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B131" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B132" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B133" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B134" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B136" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B145" s="3"/>
+      <c r="C145" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B146" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B147" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B148" s="3"/>
+      <c r="C148" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D149" s="3"/>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B150" s="3"/>
+      <c r="C150" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B151" s="3"/>
+      <c r="C151" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D151" s="3"/>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B153" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B154" s="3"/>
+      <c r="C154" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B155" s="3"/>
+      <c r="C155" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B156" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B157" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B158" s="3"/>
+      <c r="C158" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B160" s="3"/>
+      <c r="C160" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B161" s="3"/>
+      <c r="C161" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D161" s="3"/>
+    </row>
+    <row r="162" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B163" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B164" s="3"/>
+      <c r="C164" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B165" s="3"/>
+      <c r="C165" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B166" s="3"/>
+      <c r="C166" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B167" s="3"/>
+      <c r="C167" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B168" s="3"/>
+      <c r="C168" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D168" s="3"/>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B169" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B170" s="3"/>
+      <c r="C170" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D170" s="3"/>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B171" s="3"/>
+      <c r="C171" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D171" s="3"/>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B172" s="3"/>
+      <c r="C172" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D172" s="3"/>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B173" s="3"/>
+      <c r="C173" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D173" s="3"/>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B174" s="3"/>
+      <c r="C174" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B175" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B176" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B178" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B179" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" s="16"/>
+      <c r="D179" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B180" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B181" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
